--- a/gulou-excel/hospitalData.xlsx
+++ b/gulou-excel/hospitalData.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
   <si>
     <t>医院（官方名）</t>
   </si>
@@ -699,15 +700,120 @@
   <si>
     <t>扬州大学附属医院</t>
   </si>
+  <si>
+    <t>2 江苏省中医院（ 紫东院区） 5</t>
+  </si>
+  <si>
+    <t>3 江苏省中医院紫东院区 6</t>
+  </si>
+  <si>
+    <t>4 江苏省中医院 5</t>
+  </si>
+  <si>
+    <t>140 Ooo 1</t>
+  </si>
+  <si>
+    <t>232 江苏省无锡市惠山区第二人民医院 6</t>
+  </si>
+  <si>
+    <t>273 惠山区第三人民医院 4</t>
+  </si>
+  <si>
+    <t>274 惠山区第三人民医院 5</t>
+  </si>
+  <si>
+    <t>275 惠山区第三人民医院 6</t>
+  </si>
+  <si>
+    <t>314 苏州大学附属第二医院（浒关院区） 4</t>
+  </si>
+  <si>
+    <t>321 苏州大学附属第二医院（浒关院区） 5</t>
+  </si>
+  <si>
+    <t>334 灌南县妇幼保健院 4</t>
+  </si>
+  <si>
+    <t>335 灌南县妇幼保健院 5</t>
+  </si>
+  <si>
+    <t>336 灌南县妇幼保健院 6</t>
+  </si>
+  <si>
+    <t>340 赣榆区中医院 6</t>
+  </si>
+  <si>
+    <t>342 江苏省无锡市惠山区人民医院 4</t>
+  </si>
+  <si>
+    <t>354 江苏省无锡市惠山区人民医院 5</t>
+  </si>
+  <si>
+    <t>355 江苏省无锡市惠山区人民医院 6</t>
+  </si>
+  <si>
+    <t>416 苏州大学附属第二医院（浒关院区） 6</t>
+  </si>
+  <si>
+    <t>519 苏大附二院三香院区 4</t>
+  </si>
+  <si>
+    <t>520 苏大附二院三香院区 5</t>
+  </si>
+  <si>
+    <t>521 苏大附二院三香院区 6</t>
+  </si>
+  <si>
+    <t>639 连云港市赣榆区中医院 4</t>
+  </si>
+  <si>
+    <t>642 连云港市赣榆区中医院 5</t>
+  </si>
+  <si>
+    <t>645 连云港市赣榆区中医院 6</t>
+  </si>
+  <si>
+    <t>720 无锡市惠山区第二人民医院 4</t>
+  </si>
+  <si>
+    <t>721 无锡市惠山区第二人民医院 5</t>
+  </si>
+  <si>
+    <t>722 无锡市惠山区第二人民医院 6</t>
+  </si>
+  <si>
+    <t>821 淮安市淮安医院 1</t>
+  </si>
+  <si>
+    <t>822 淮安市淮安医院 2</t>
+  </si>
+  <si>
+    <t>823 淮安市淮安医院 3</t>
+  </si>
+  <si>
+    <t>872 南通和美家妇产科医院 1</t>
+  </si>
+  <si>
+    <t>873 南通和美家妇产科医院 2</t>
+  </si>
+  <si>
+    <t>874 南通和美家妇产科医院 3</t>
+  </si>
+  <si>
+    <t>875 南通和美家妇产科医院 4</t>
+  </si>
+  <si>
+    <t>876 南通和美家妇产科医院 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -733,18 +839,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,65 +869,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,9 +894,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,8 +945,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +962,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,151 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1014,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1158,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,6 +1202,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1107,47 +1224,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,147 +1251,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1663,7 +1769,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4917,14 +5023,20 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F145" s="4" t="s">
         <v>11</v>
       </c>
@@ -4937,7 +5049,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>9</v>
@@ -4963,20 +5075,14 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
         <v>11</v>
       </c>
@@ -4989,7 +5095,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>9</v>
@@ -4997,19 +5103,13 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>9</v>
@@ -5023,7 +5123,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>9</v>
@@ -5037,7 +5137,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>9</v>
@@ -5051,7 +5151,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>9</v>
@@ -5059,13 +5159,19 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
+      <c r="F152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>9</v>
@@ -5085,14 +5191,20 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F154" s="4" t="s">
         <v>11</v>
       </c>
@@ -5105,20 +5217,14 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
       <c r="F155" s="4" t="s">
         <v>11</v>
       </c>
@@ -5131,14 +5237,20 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F156" s="4" t="s">
         <v>11</v>
       </c>
@@ -5151,7 +5263,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>9</v>
@@ -5177,20 +5289,14 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
       <c r="F158" s="4" t="s">
         <v>11</v>
       </c>
@@ -5203,14 +5309,20 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="C159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F159" s="4" t="s">
         <v>11</v>
       </c>
@@ -5223,7 +5335,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>9</v>
@@ -5249,20 +5361,14 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
       <c r="F161" s="4" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +5381,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>9</v>
@@ -5283,55 +5389,57 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
+      <c r="E163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E164" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>9</v>
@@ -5348,25 +5456,23 @@
       <c r="F165" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
+      <c r="G165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
       <c r="F166" s="4" t="s">
         <v>11</v>
       </c>
@@ -5379,14 +5485,20 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
+      <c r="C167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F167" s="4" t="s">
         <v>11</v>
       </c>
@@ -5399,7 +5511,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>9</v>
@@ -5425,7 +5537,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>9</v>
@@ -5439,19 +5551,13 @@
       <c r="E169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>9</v>
@@ -5465,26 +5571,26 @@
       <c r="E170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
+      <c r="F170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
       <c r="F171" s="4" t="s">
         <v>11</v>
       </c>
@@ -5497,14 +5603,20 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
+      <c r="C172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F172" s="4" t="s">
         <v>11</v>
       </c>
@@ -5517,7 +5629,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>9</v>
@@ -5543,7 +5655,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>9</v>
@@ -5569,20 +5681,14 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
       <c r="F175" s="4" t="s">
         <v>11</v>
       </c>
@@ -5595,7 +5701,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>9</v>
@@ -5615,7 +5721,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>9</v>
@@ -5635,14 +5741,20 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F178" s="4" t="s">
         <v>11</v>
       </c>
@@ -5655,20 +5767,14 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
       <c r="F179" s="4" t="s">
         <v>11</v>
       </c>
@@ -5681,7 +5787,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>9</v>
@@ -5701,7 +5807,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>9</v>
@@ -5719,24 +5825,199 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>11</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="38.8046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
